--- a/data/long_bre/P24_3-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_3-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,95%</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>40,44%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-19,4%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-10,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,75</t>
+          <t>-0,98; 6,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,1</t>
+          <t>-8,66; 2,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 2,3</t>
+          <t>-5,61; 2,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 106,59</t>
+          <t>-5,19; 4,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,5; 31,48</t>
+          <t>-7,53; 4,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 24,17</t>
+          <t>-10,39; 111,81</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-48,26; 19,44</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-38,49; 26,37</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-36,95; 51,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-38,34; 39,68</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>-3,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-3,25%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 3,03</t>
+          <t>-8,22; 3,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 6,1</t>
+          <t>-6,13; 6,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 3,74</t>
+          <t>-8,17; 3,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 3,97</t>
+          <t>-10,42; 5,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 8,34</t>
+          <t>-6,88; 9,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 5,11</t>
+          <t>-10,21; 5,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 9,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 4,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-13,43; 7,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 15,93</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>-3,74%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,95%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36,4%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 5,68</t>
+          <t>-5,45; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 6,35</t>
+          <t>-2,13; 6,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,56</t>
+          <t>-0,33; 7,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 51,95</t>
+          <t>-3,32; 8,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 70,95</t>
+          <t>-5,89; 7,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 88,13</t>
+          <t>-31,91; 36,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; 73,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 87,24</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 74,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-25,19; 42,35</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 91,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 85,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 47,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,76%</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-29,51%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 6,44</t>
+          <t>-3,36; 6,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 5,24</t>
+          <t>-5,76; 8,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 7,23</t>
+          <t>-4,3; 5,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 8,96</t>
+          <t>-5,98; 4,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 7,26</t>
+          <t>-11,91; 5,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 10,03</t>
+          <t>-29,34; 84,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-38,6; 105,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-28,53; 53,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-41,1; 56,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-69,61; 74,92</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,94%</t>
+          <t>-7,26%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-5,85%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 6,8</t>
+          <t>-12,72; 0,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 7,86</t>
+          <t>-13,63; 2,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 4,24</t>
+          <t>-5,33; 6,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 82,4</t>
+          <t>-10,54; 7,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 89,29</t>
+          <t>-17,54; 11,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 42,33</t>
+          <t>-15,25; 0,51</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-16,81; 3,69</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 9,14</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 10,98</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-23,78; 19,87</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>564,55%</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-18,03%</t>
+          <t>49,19%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-7,73%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 18,33</t>
+          <t>0,03; 10,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 10,48</t>
+          <t>-1,85; 9,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 7,85</t>
+          <t>-5,56; 3,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,69; —</t>
+          <t>-4,83; 10,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 255,84</t>
+          <t>-7,12; 18,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 68,25</t>
+          <t>-1,5; 148,77</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-14,98; 106,68</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-38,81; 40,35</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-22,76; 68,48</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-28,8; 146,15</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,96; -2,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 9,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 16,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,29; -3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 13,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 28,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,16%</t>
+          <t>622,65%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 11,73</t>
+          <t>5,72; 20,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 11,05</t>
+          <t>-8,04; 10,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 9,26</t>
+          <t>-13,06; 6,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-44,09; 211,72</t>
+          <t>-6,87; 12,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-56,03; 157,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 103,32</t>
+          <t>70,92; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-60,64; 238,1</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-56,34; 59,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-59,89; 315,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-15,06</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>-17,24%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,61%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,82</t>
+          <t>-25,91; -2,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,07</t>
+          <t>-15,84; 8,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,68</t>
+          <t>-7,61; 18,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,56; 90,59</t>
+          <t>-18,08; 14,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 34,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 14,31</t>
+          <t>-29,36; -3,75</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 12,68</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 30,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 21,54</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-12,28%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,68</t>
+          <t>-7,82; 11,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,89</t>
+          <t>-7,59; 11,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,84</t>
+          <t>-11,72; 7,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 0,85</t>
+          <t>-14,12; 13,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 5,23</t>
+          <t>-46,16; 183,42</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-52,06; 175,5</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-62,45; 84,23</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-59,51; 186,06</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 45,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 56,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 39,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>45,23%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-5,91%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-11,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 6,23</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 3,02</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 1,88</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 3,18</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 3,32</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 97,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; 30,44</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-26,13; 17,18</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-27,37; 35,22</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 27,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-2,66%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-3,5%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; -1,2</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 2,69</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 3,45</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 2,65</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 6,93</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; -1,61</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 3,65</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 4,8</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 3,75</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 11,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 5,1</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 6,15</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 4,39</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 7,15</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 7,4</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-11,6; 49,58</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 67,04</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 43,7</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 48,97</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; 42,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_3-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_3-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1432,7 +1432,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1534,7 +1534,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1754,7 +1754,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1868,7 +1868,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
